--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win11\PycharmProjects\Stocket\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpich\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9786E5B8-5FD7-487E-BB76-0055A0D9E5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03517D53-A314-4B79-B34B-62F131A4BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,36 +417,30 @@
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE INFORMACIÓN</t>
   </si>
   <si>
-    <t>21-JUL-2023 AL 04-AGO-2023</t>
-  </si>
-  <si>
-    <t>Ver 0.3.0.0
-Gestion de empresa:
-- Se ha creado la gestion de dependencias por sedes, ahora el sistema permite añadirle a las sedes las dependencias que debe incluir
-Gestion de personas:
-- Ahora, se pueden añadir y gestionar los datos de los funcionarios
-- Ahora, se pueden añadir y gestionar los datos de los proveedores
-Pruebas:
-- Se han escrito las pruebas unitarias para los modulos de personas y empresa
-- Se ha exportado el reporte de pruebas actualziado para la version 
-Manuales:
-- Se ha modificado la forma como se escriben los manuales, ahora se han creado videos explicativos que indican como usar la plataforma, ahora puede encontrarlos en la ruta docs-&gt;manuales-&gt;Tutoriales, los videos se encuentran definidos por version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver. 0.4.0.0
-Gestion de Inventario:
-- Se han creado las tablas de base de datos para gestionar Marcas, Categorias, Referencias (Marca por categoria) y elemento
-Gestion de inventario
-- Ahora, se pueden añadir y gestionar los datos de las marcas
-- Ahora, se pueden añadir y gestionar los datos de las categorias
-- (Bajo desarrollo) se inició procedimiento de creado de referenca, crear marcas por categoria.
-Obs. Los estáticos para esta versión no han sido generados en vista de
-que todavia no se ha finalizado con las tareas propias de la misma,
-deberá esperarse que se finalicen las demás para ese fin
-</t>
-  </si>
-  <si>
     <t>Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ver. 0.5.0.0
+- Gestion de operaciones
+* Se han creado Modelos de Asignacion, Mantenimiento y Bajas
+* Se han escrito casos de prueba para cada modelo
+* Se han creado reporte de pruebas unitarias para los modelos
+* Se ha creado scaffolding de vistas para vuejs
+Obs. La versión se encuentra en desarrollo, por lo que los estáticos no se generarán hasta que finalice el desarrollo</t>
+  </si>
+  <si>
+    <t>Ver. 0.4.0.0
+- Gestion de Elementos:
+* Ahora, se puede hacer CRUD sobre Elemento
+* Ahora, puede enlazarse elementos con referencias
+- Se han creado mocks de prueba y reporte de pruebas unitaras
+- Se han creado videos tutoriales sobre el uso de aplicación
+- Se han generado estáticos y se han integrado con django
+- Se finaliza desarrollo de la versión</t>
+  </si>
+  <si>
+    <t>05-AGOSTO-2023 AL 19-AGOSTO-2023</t>
   </si>
 </sst>
 </file>
@@ -847,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,282 +919,360 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1214,109 +1286,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,8 +1871,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26:Y27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1876,292 +1897,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="77" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="80"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="79" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="54"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="70"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="39" t="s">
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42" t="s">
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-    </row>
-    <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+    </row>
+    <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2190,68 +2211,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="58" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58" t="s">
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="50" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="59" t="s">
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2280,100 +2301,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="55" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="55" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="55" t="s">
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="55" t="s">
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="57"/>
-    </row>
-    <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="57"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="89"/>
+    </row>
+    <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="89"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2402,72 +2423,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="33" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35" t="s">
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="96"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="57">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="33" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="38" t="s">
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="96"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2496,64 +2517,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="42" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60">
+      <c r="B23" s="74">
         <v>2281590</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="60" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="62"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="76"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2582,208 +2603,208 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="39" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="78"/>
+      <c r="M25" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="39" t="s">
+      <c r="N25" s="78"/>
+      <c r="O25" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="39" t="s">
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="68"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="79"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="152">
+        <v>45143</v>
+      </c>
+      <c r="L26" s="153"/>
+      <c r="M26" s="152">
+        <v>45157</v>
+      </c>
+      <c r="N26" s="153"/>
+      <c r="O26" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="47"/>
+    </row>
+    <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
+    </row>
+    <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="51">
-        <v>45128</v>
-      </c>
-      <c r="L26" s="152"/>
-      <c r="M26" s="51">
-        <v>45142</v>
-      </c>
-      <c r="N26" s="152"/>
-      <c r="O26" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="46"/>
-    </row>
-    <row r="27" spans="2:25" ht="405" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="49"/>
-    </row>
-    <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-    </row>
-    <row r="30" spans="2:25" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+    </row>
+    <row r="30" spans="2:25" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -2942,35 +2963,35 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
       <c r="R38" s="16"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="29" t="s">
+      <c r="T38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,14 +3021,14 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
@@ -3036,97 +3057,97 @@
       <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="31" t="s">
+      <c r="S42" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3159,63 @@
     <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="72">
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M26:N30"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="U26:Y27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="U28:Y30"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="K26:L30"/>
+    <mergeCell ref="O26:T30"/>
     <mergeCell ref="B44:Y45"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="B22:J22"/>
@@ -3155,63 +3232,6 @@
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="U28:Y30"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="M28:N30"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="U26:Y27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="O26:T30"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="V16:X17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3249,47 +3269,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3298,15 +3318,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3316,277 +3336,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3596,391 +3616,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104" t="s">
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104" t="s">
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104" t="s">
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="106"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="101" t="s">
+      <c r="C47" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="106"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -4008,19 +4028,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B9:K21"/>
     <mergeCell ref="C28:G28"/>
@@ -4037,37 +4075,19 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4091,124 +4111,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="128" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="148" t="s">
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="150"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="147"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="126"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4237,66 +4257,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="133" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="133" t="s">
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="135"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4325,66 +4345,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57" t="s">
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4413,66 +4433,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126" t="s">
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="133" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="133" t="s">
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="135"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="134"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4501,184 +4521,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="136" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="29" t="s">
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="137" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="138" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="127" t="s">
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="127" t="s">
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="129"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="136"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="132"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="139"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="125" t="s">
+      <c r="J21" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="125" t="s">
+      <c r="R21" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="122" t="s">
+      <c r="P23" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="123" t="s">
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="122" t="s">
+      <c r="P24" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="124" t="s">
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4693,13 +4701,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpich\GitHub\Stocket\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03517D53-A314-4B79-B34B-62F131A4BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C926F-F749-4D41-B1BA-9B6EC17A8B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,27 +420,20 @@
     <t>Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Ver. 0.5.0.0
-- Gestion de operaciones
-* Se han creado Modelos de Asignacion, Mantenimiento y Bajas
-* Se han escrito casos de prueba para cada modelo
-* Se han creado reporte de pruebas unitarias para los modelos
-* Se ha creado scaffolding de vistas para vuejs
-Obs. La versión se encuentra en desarrollo, por lo que los estáticos no se generarán hasta que finalice el desarrollo</t>
-  </si>
-  <si>
-    <t>Ver. 0.4.0.0
-- Gestion de Elementos:
-* Ahora, se puede hacer CRUD sobre Elemento
-* Ahora, puede enlazarse elementos con referencias
-- Se han creado mocks de prueba y reporte de pruebas unitaras
-- Se han creado videos tutoriales sobre el uso de aplicación
-- Se han generado estáticos y se han integrado con django
-- Se finaliza desarrollo de la versión</t>
-  </si>
-  <si>
-    <t>05-AGOSTO-2023 AL 19-AGOSTO-2023</t>
+    <t>20-AGOSTO-2023 AL 3-SEPTIEMBRE-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver. 0.5.0.0
+- Gestion de Asignaciones
+* Ahora el sistema puede asignar y cambiar el estado de los elementos asginados
+* Ahora, el sistema genera reportes PDF sobre el proceso de asignaciones
+- Gestión de Mantenimientos
+* Se ha iniciado el proceso de desarrollo de mantenimientos
+Se han corregido errores menores en versión 0.4.0.0
+Obs. La versión 0.5.0.0 se encuentra en desarrollo, por lo que los estáticos no se generarán hasta que finalice el desarrollo		</t>
+  </si>
+  <si>
+    <t>Por calamidad familiar, no ha sido posible avanzar en la finalizacion de la versión.</t>
   </si>
 </sst>
 </file>
@@ -841,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,17 +912,201 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -937,18 +1114,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,175 +1135,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1166,42 +1198,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1220,124 +1285,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1871,8 +1822,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1897,292 +1848,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="60" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="70"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="54"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="70"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="54"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="77" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="35" t="s">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="77">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2211,68 +2162,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="64" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64" t="s">
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="53" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="90" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2301,100 +2252,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="37" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="37" t="s">
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="37" t="s">
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="37" t="s">
+      <c r="T16" s="40"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="89"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="55"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="89"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="55"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2423,72 +2374,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="55" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="55" t="s">
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="32" t="s">
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="96"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="57">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="82">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55" t="s">
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="97" t="s">
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="96"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2517,64 +2468,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35" t="s">
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="74">
+      <c r="B23" s="77">
         <v>2281590</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="74" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="76"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="79"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2603,208 +2554,208 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="77" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="78"/>
-      <c r="M25" s="77" t="s">
+      <c r="L25" s="80"/>
+      <c r="M25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="77" t="s">
+      <c r="N25" s="80"/>
+      <c r="O25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="77" t="s">
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="79"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="152">
-        <v>45143</v>
-      </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="152">
-        <v>45157</v>
-      </c>
-      <c r="N26" s="153"/>
-      <c r="O26" s="80" t="s">
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="34">
+        <v>45158</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="34">
+        <v>45172</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="91"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="91"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="91"/>
     </row>
     <row r="30" spans="2:25" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="94"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -2963,35 +2914,35 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="51" t="s">
+      <c r="K38" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
       <c r="R38" s="16"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="31" t="s">
+      <c r="T38" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,14 +2972,14 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
@@ -3057,97 +3008,97 @@
       <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="51" t="s">
+      <c r="K42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="95" t="s">
+      <c r="S42" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3159,21 +3110,42 @@
     <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M26:N30"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
+  <mergeCells count="70">
+    <mergeCell ref="B44:Y45"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="K26:L30"/>
+    <mergeCell ref="O26:T30"/>
+    <mergeCell ref="B26:J30"/>
+    <mergeCell ref="U26:Y30"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
     <mergeCell ref="B6:Y6"/>
     <mergeCell ref="V16:X17"/>
     <mergeCell ref="U16:U17"/>
@@ -3190,48 +3162,25 @@
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="U26:Y27"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="U28:Y30"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B38:I38"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="O26:T30"/>
-    <mergeCell ref="B44:Y45"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="B28:J30"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M26:N30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3269,47 +3218,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3318,15 +3267,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3336,277 +3285,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="111"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117" t="s">
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="109"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="121"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3616,391 +3565,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101" t="s">
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101" t="s">
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101" t="s">
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101" t="s">
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -4028,6 +3977,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B9:K21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -4044,50 +4037,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B9:K21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4111,124 +4060,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="130" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="153"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="126"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="150"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4257,66 +4206,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123" t="s">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="132" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="132" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="133"/>
-      <c r="X8" s="134"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4345,66 +4294,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89" t="s">
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4433,66 +4382,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123" t="s">
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="132" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="132" t="s">
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="134"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="138"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4521,172 +4470,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="140" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="31" t="s">
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="141" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="141"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="142" t="s">
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="135" t="s">
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="135" t="s">
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="136"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="132"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="139"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="135"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="151" t="s">
+      <c r="J21" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="151" t="s">
+      <c r="R21" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="148" t="s">
+      <c r="P23" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="149" t="s">
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="148" t="s">
+      <c r="P24" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="150" t="s">
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
-      <c r="X24" s="150"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4701,25 +4662,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stocket\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C926F-F749-4D41-B1BA-9B6EC17A8B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86259429-E937-47DD-BDA9-7A7FCE7E850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,23 +417,33 @@
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE INFORMACIÓN</t>
   </si>
   <si>
-    <t>Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket</t>
-  </si>
-  <si>
-    <t>20-AGOSTO-2023 AL 3-SEPTIEMBRE-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver. 0.5.0.0
-- Gestion de Asignaciones
-* Ahora el sistema puede asignar y cambiar el estado de los elementos asginados
-* Ahora, el sistema genera reportes PDF sobre el proceso de asignaciones
-- Gestión de Mantenimientos
-* Se ha iniciado el proceso de desarrollo de mantenimientos
-Se han corregido errores menores en versión 0.4.0.0
-Obs. La versión 0.5.0.0 se encuentra en desarrollo, por lo que los estáticos no se generarán hasta que finalice el desarrollo		</t>
-  </si>
-  <si>
-    <t>Por calamidad familiar, no ha sido posible avanzar en la finalizacion de la versión.</t>
+    <t>4-SEPTIEMBRE-2023 AL 18-SEPTIEMBRE-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ver. 0.5.0.0 - alpha"
+- Gestion de mantenimientos: se ha finalizado el desarrollo de modulo de mantenimientos, ahora el sistema puede crear, finalizar historias de mantenimientos y se puede alterar el estado de los elementos para iniciar procesos de baja
+- Gestion de bajas: se ha creado modulo de bajas, ahora se crean reportes sobre los elementos que serán borrados y se muestra informacion sobre su fecha de borrado del sistema.
+- Reportes del sistema: Ahora se ha creado un apartado en el sistema que muestra los elementos cuyas historias de mantenimiento se encuentran abiertas y elementos cuya baja se encuentra en proceso.
+"Ver. 0.6.0.0 - beta"
+- Se ha finalizado el proceso de desarrollo del sistema, en vista de que se han construido todos los modulos definidos
+- Se ha creado reporte de fallos en el archivo bugs.md
+- Se han realizado mejoras de codigo y optimizacion del mismo para corregir errores identificados
+- Se ha desplegado el producto para su testeo en fase beta, se encuentra disponible en la red para su uso
+- Se continua con la corrección de errores y mejoras	
+- Todas las funciones de autenticacion y registros fueron optimizadas, ahora el sistema permite crear usuarios y se requiere un correo válido para realizar operaciones.					
+								</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket
+Repositorio GitHub de despliegue para pruebas en https://github.com/luchompi/stocket-deploy
+URL para testeo en https://stocket-deploy.vercel.app/
+Credenciales: 
+Usuario: root
+Contraseña: root123
+</t>
+  </si>
+  <si>
+    <t>NINGUNA</t>
   </si>
 </sst>
 </file>
@@ -834,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -912,38 +922,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -951,252 +952,312 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1210,86 +1271,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,7 +1373,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>78758</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:rowOff>131378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1822,8 +1829,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1841,299 +1848,300 @@
     <col min="17" max="17" width="5.85546875" style="4" customWidth="1"/>
     <col min="18" max="18" width="5.7109375" style="4" customWidth="1"/>
     <col min="19" max="19" width="7.140625" style="4" customWidth="1"/>
-    <col min="20" max="23" width="5.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="4" customWidth="1"/>
+    <col min="21" max="23" width="5.7109375" style="4" customWidth="1"/>
     <col min="24" max="24" width="5.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="5.7109375" style="4" customWidth="1"/>
     <col min="26" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="67" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="56" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="61"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="61"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="29" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32" t="s">
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="89">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2162,68 +2170,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="57" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="58" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2252,100 +2260,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="40" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="40" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="40" t="s">
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="40" t="s">
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="55"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="77"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="55"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="77"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2374,72 +2382,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="46" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="46" t="s">
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48" t="s">
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="87"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="82">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="68">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="46" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="51" t="s">
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="50"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="87"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2468,64 +2476,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="32" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77">
+      <c r="B23" s="65">
         <v>2281590</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="77" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="79"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="67"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2554,208 +2562,208 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="29" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="80"/>
-      <c r="M25" s="29" t="s">
+      <c r="L25" s="90"/>
+      <c r="M25" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="29" t="s">
+      <c r="N25" s="90"/>
+      <c r="O25" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="29" t="s">
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="53">
+        <v>45173</v>
+      </c>
+      <c r="L26" s="54"/>
+      <c r="M26" s="53">
+        <v>45187</v>
+      </c>
+      <c r="N26" s="54"/>
+      <c r="O26" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="34">
-        <v>45158</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="34">
-        <v>45172</v>
-      </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="86" t="s">
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="148"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="89"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="91"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="151"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="91"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="151"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="91"/>
-    </row>
-    <row r="30" spans="2:25" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="94"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="151"/>
+    </row>
+    <row r="30" spans="2:25" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="154"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -2914,35 +2922,35 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
       <c r="R38" s="16"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="42" t="s">
+      <c r="T38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,14 +2980,14 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
@@ -3008,97 +3016,97 @@
       <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="44" t="s">
+      <c r="S42" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3111,6 +3119,60 @@
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M26:N30"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="K26:L30"/>
+    <mergeCell ref="O26:T30"/>
+    <mergeCell ref="B26:J30"/>
+    <mergeCell ref="U26:Y30"/>
     <mergeCell ref="B44:Y45"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="B22:J22"/>
@@ -3127,67 +3189,13 @@
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="O26:T30"/>
-    <mergeCell ref="B26:J30"/>
-    <mergeCell ref="U26:Y30"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="V16:X17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M26:N30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
     <hyperlink ref="T20" r:id="rId2" xr:uid="{BD6EC083-FDE4-4F22-8CFB-FF65C888314D}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
@@ -3218,47 +3226,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3267,15 +3275,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3285,277 +3293,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3565,391 +3573,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107" t="s">
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107" t="s">
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107" t="s">
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107" t="s">
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="109"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="109"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="108"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -3977,19 +3985,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B9:K21"/>
     <mergeCell ref="C28:G28"/>
@@ -4006,37 +4032,19 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4060,124 +4068,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="131" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="151" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="153"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="123"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="150"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="120"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4206,66 +4214,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="136" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="136" t="s">
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="128"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4294,66 +4302,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55" t="s">
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4382,66 +4390,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129" t="s">
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129" t="s">
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="136" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="136" t="s">
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="138"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="128"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4470,184 +4478,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="139" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="42" t="s">
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="140" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="141" t="s">
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="130" t="s">
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="130" t="s">
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="132"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="130"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="135"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="133"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="128" t="s">
+      <c r="J21" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="128" t="s">
+      <c r="R21" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="125" t="s">
+      <c r="P23" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="126" t="s">
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="143"/>
+      <c r="X23" s="143"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="125" t="s">
+      <c r="P24" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="127" t="s">
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4662,13 +4658,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86259429-E937-47DD-BDA9-7A7FCE7E850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B67B5-314F-487C-A556-B77EB8901DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,23 +417,6 @@
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE INFORMACIÓN</t>
   </si>
   <si>
-    <t>4-SEPTIEMBRE-2023 AL 18-SEPTIEMBRE-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ver. 0.5.0.0 - alpha"
-- Gestion de mantenimientos: se ha finalizado el desarrollo de modulo de mantenimientos, ahora el sistema puede crear, finalizar historias de mantenimientos y se puede alterar el estado de los elementos para iniciar procesos de baja
-- Gestion de bajas: se ha creado modulo de bajas, ahora se crean reportes sobre los elementos que serán borrados y se muestra informacion sobre su fecha de borrado del sistema.
-- Reportes del sistema: Ahora se ha creado un apartado en el sistema que muestra los elementos cuyas historias de mantenimiento se encuentran abiertas y elementos cuya baja se encuentra en proceso.
-"Ver. 0.6.0.0 - beta"
-- Se ha finalizado el proceso de desarrollo del sistema, en vista de que se han construido todos los modulos definidos
-- Se ha creado reporte de fallos en el archivo bugs.md
-- Se han realizado mejoras de codigo y optimizacion del mismo para corregir errores identificados
-- Se ha desplegado el producto para su testeo en fase beta, se encuentra disponible en la red para su uso
-- Se continua con la corrección de errores y mejoras	
-- Todas las funciones de autenticacion y registros fueron optimizadas, ahora el sistema permite crear usuarios y se requiere un correo válido para realizar operaciones.					
-								</t>
-  </si>
-  <si>
     <t xml:space="preserve">Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket
 Repositorio GitHub de despliegue para pruebas en https://github.com/luchompi/stocket-deploy
 URL para testeo en https://stocket-deploy.vercel.app/
@@ -444,6 +427,16 @@
   </si>
   <si>
     <t>NINGUNA</t>
+  </si>
+  <si>
+    <t>19-SEPTIEMBRE-2023 - 03-OCTUBRE-2023</t>
+  </si>
+  <si>
+    <t>"Ver. 0.6.42.0 - beta"
+- Se ha creado archivo de reporte con errores comunes bajo el nombre bugs.md
+- Se han corregido errores identificados el reporte de bugs.md
+- Se ha empezado a escribir manuales de uso
+- Se ha alterado contraseña de correo electronico configurado para autenticación</t>
   </si>
 </sst>
 </file>
@@ -991,81 +984,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1091,33 +1138,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,33 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,8 +1822,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:J30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1856,14 +1849,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
@@ -1876,22 +1869,22 @@
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="69" t="s">
+      <c r="V1" s="83"/>
+      <c r="W1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -1904,25 +1897,25 @@
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="71" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
@@ -1940,17 +1933,17 @@
       <c r="Y3" s="29"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
@@ -1968,114 +1961,114 @@
       <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="61"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="69"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="61"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
@@ -2094,14 +2087,14 @@
       <c r="M9" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
       <c r="P9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="35" t="s">
         <v>3</v>
       </c>
@@ -2112,36 +2105,36 @@
       <c r="Y9" s="35"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="35"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="89">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
+        <v>8</v>
+      </c>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2170,49 +2163,49 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="73" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73" t="s">
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="47" t="s">
         <v>115</v>
       </c>
@@ -2221,7 +2214,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
-      <c r="Q13" s="78" t="s">
+      <c r="Q13" s="96" t="s">
         <v>116</v>
       </c>
       <c r="R13" s="47"/>
@@ -2260,32 +2253,32 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
@@ -2426,7 +2419,7 @@
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
-      <c r="J20" s="68">
+      <c r="J20" s="76">
         <v>1118855506</v>
       </c>
       <c r="K20" s="48"/>
@@ -2506,34 +2499,34 @@
       <c r="Y22" s="36"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="65">
+      <c r="B23" s="73">
         <v>2281590</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="65" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="67"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="75"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2598,172 +2591,172 @@
       <c r="Y25" s="91"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="52">
+        <v>45188</v>
+      </c>
+      <c r="L26" s="53"/>
+      <c r="M26" s="52">
+        <v>45202</v>
+      </c>
+      <c r="N26" s="53"/>
+      <c r="O26" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="53">
-        <v>45173</v>
-      </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="53">
-        <v>45187</v>
-      </c>
-      <c r="N26" s="54"/>
-      <c r="O26" s="146" t="s">
-        <v>123</v>
-      </c>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="148"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="60"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="151"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="63"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="151"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="63"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="150"/>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="151"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="63"/>
     </row>
     <row r="30" spans="2:25" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="154"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="66"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -3124,6 +3117,13 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M26:N30"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="B42:I42"/>
@@ -3138,13 +3138,8 @@
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="B31:Y31"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="B1:V2"/>
@@ -3166,8 +3161,6 @@
     <mergeCell ref="T9:Y9"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="B9:L9"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="B31:Y31"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="K26:L30"/>
     <mergeCell ref="O26:T30"/>
@@ -3226,47 +3219,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3275,15 +3268,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3293,277 +3286,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="105"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3573,391 +3566,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95" t="s">
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95" t="s">
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95" t="s">
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="108"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="108"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -4068,124 +4061,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="124" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="121" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="123"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="132"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="120"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4214,36 +4207,36 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
@@ -4255,25 +4248,25 @@
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="126" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="128"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4302,32 +4295,32 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
@@ -4390,36 +4383,36 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117" t="s">
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
@@ -4431,25 +4424,25 @@
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="126" t="s">
+      <c r="J14" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="126" t="s">
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="128"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4489,12 +4482,12 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="134" t="s">
+      <c r="J16" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
       <c r="N16" s="31" t="s">
         <v>13</v>
       </c>
@@ -4503,137 +4496,137 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
-      <c r="T16" s="135" t="s">
+      <c r="T16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="136" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="129" t="s">
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="129" t="s">
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="130"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="139"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="133"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="145" t="s">
+      <c r="J21" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="145" t="s">
+      <c r="R21" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="142" t="s">
+      <c r="P23" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="143" t="s">
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="143"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="143"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="142" t="s">
+      <c r="P24" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="144" t="s">
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B67B5-314F-487C-A556-B77EB8901DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFB621-0AAC-4D07-B4CB-704473683D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,11 +432,15 @@
     <t>19-SEPTIEMBRE-2023 - 03-OCTUBRE-2023</t>
   </si>
   <si>
-    <t>"Ver. 0.6.42.0 - beta"
-- Se ha creado archivo de reporte con errores comunes bajo el nombre bugs.md
-- Se han corregido errores identificados el reporte de bugs.md
-- Se ha empezado a escribir manuales de uso
-- Se ha alterado contraseña de correo electronico configurado para autenticación</t>
+    <t xml:space="preserve">"Ver. 0.6.42.0 - beta"
+* se han corregido errores detectados
+* se ha finalizado desarrollo de la documentación. Ello incluye:
+  - Métricas
+  - Trazabilidad
+  - Manual de uso
+  - Plan de mantenimiento
+  - Manual de capacitación
+ </t>
   </si>
 </sst>
 </file>
@@ -915,17 +919,198 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -933,18 +1118,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,184 +1139,42 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1171,42 +1205,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1225,71 +1292,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,8 +1826,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1849,292 +1853,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="79" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="78" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="69"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="75"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="89" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="35" t="s">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="89">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="78" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2163,68 +2167,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="82" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="47" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="96" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2253,100 +2257,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="37" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="37" t="s">
+      <c r="L16" s="98"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="37" t="s">
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="37" t="s">
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="77"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="84"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="77"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="84"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2375,72 +2379,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="49" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="49" t="s">
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="32" t="s">
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="87"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="60"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="76">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="82">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49" t="s">
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="88" t="s">
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="87"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="60"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2469,64 +2473,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73">
+      <c r="B23" s="79">
         <v>2281590</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="73" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="75"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="81"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2555,208 +2559,208 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="89" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="90"/>
-      <c r="M25" s="89" t="s">
+      <c r="L25" s="62"/>
+      <c r="M25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="90"/>
-      <c r="O25" s="89" t="s">
+      <c r="N25" s="62"/>
+      <c r="O25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="89" t="s">
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="52">
-        <v>45188</v>
-      </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="52">
-        <v>45202</v>
-      </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="58" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="34">
+        <v>45203</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="34">
+        <v>45217</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="58" t="s">
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="87"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="63"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="90"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="63"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="90"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="63"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="90"/>
     </row>
     <row r="30" spans="2:25" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="66"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="93"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -2915,35 +2919,35 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="45" t="s">
+      <c r="K38" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
       <c r="R38" s="16"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="31" t="s">
+      <c r="T38" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2973,14 +2977,14 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
@@ -3009,97 +3013,97 @@
       <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="45" t="s">
+      <c r="K42" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="86" t="s">
+      <c r="S42" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3112,39 +3116,23 @@
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M26:N30"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="U26:Y30"/>
+    <mergeCell ref="B44:Y45"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="K38:Q38"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -3161,27 +3149,43 @@
     <mergeCell ref="T9:Y9"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="B9:L9"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="B31:Y31"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="K26:L30"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M26:N30"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="O26:T30"/>
     <mergeCell ref="B26:J30"/>
-    <mergeCell ref="U26:Y30"/>
-    <mergeCell ref="B44:Y45"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="Q43:U43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3219,47 +3223,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3268,15 +3272,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3286,277 +3290,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="111"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="111"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120" t="s">
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="109"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3566,391 +3570,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104" t="s">
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104" t="s">
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104" t="s">
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104" t="s">
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -3978,6 +3982,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B9:K21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -3994,50 +4042,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B9:K21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4061,124 +4065,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="133" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="130" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="153"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="150"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4207,66 +4211,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126" t="s">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="135" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="135" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4295,66 +4299,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77" t="s">
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4383,66 +4387,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126" t="s">
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="135" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="135" t="s">
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="138"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4471,172 +4475,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="143" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="31" t="s">
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="144" t="s">
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="145" t="s">
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="138" t="s">
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="138" t="s">
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="139"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="132"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="142"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="135"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="154" t="s">
+      <c r="R21" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="151" t="s">
+      <c r="P23" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="152" t="s">
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="152"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="152"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="151" t="s">
+      <c r="P24" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="153" t="s">
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4651,25 +4667,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\Stocket\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFB621-0AAC-4D07-B4CB-704473683D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A5B6D-E8D2-446E-9475-A3F1B2AB110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Bitácora" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>BITÁCORA DE SEGUIMIENTO ETAPA PRODUCTIVA</t>
   </si>
@@ -429,18 +429,26 @@
     <t>NINGUNA</t>
   </si>
   <si>
-    <t>19-SEPTIEMBRE-2023 - 03-OCTUBRE-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ver. 0.6.42.0 - beta"
-* se han corregido errores detectados
-* se ha finalizado desarrollo de la documentación. Ello incluye:
-  - Métricas
-  - Trazabilidad
-  - Manual de uso
-  - Plan de mantenimiento
-  - Manual de capacitación
- </t>
+    <t>19-OCTUBRE-2023 AL 02-NOVIEMBRE-2023</t>
+  </si>
+  <si>
+    <t>"Ver. 1.6.42.0 - estable"
+Se ha finalizado el desarrollo del producto, ahora se encuentra disponible para su prueba en internet</t>
+  </si>
+  <si>
+    <t>Ver. 1.6.42 - Refactor
+Se han inicado labores de refactorización de código del servidor, las cuales incluyen:
+* Reducción de código
+* Reescritura de funciones y métodos
+Se ha iniciado labores de planificación de versión nueva:
+* Se han establecido requerimientos funcionales y no funcionales nuevos
+* Se ha definido plan de ejecución nuevo del proyecto
+* Se han iniciado labores de integracion de tecnologias nuevas:
+	- Se ha reemplazado a vuejs por reactjs como gestor de interfaces nuevo</t>
+  </si>
+  <si>
+    <t>Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket
+Rama refactor</t>
   </si>
 </sst>
 </file>
@@ -841,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -920,44 +928,204 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -982,228 +1150,146 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1217,82 +1303,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1363,14 +1377,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>313766</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>78758</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>131378</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,8 +1840,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26:Y30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1853,292 +1867,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="67" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="75"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="63"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="75"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="63"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="29" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32" t="s">
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="29">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="67" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="83">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2167,68 +2181,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="40" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40" t="s">
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="41" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2257,100 +2271,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50" t="s">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="50" t="s">
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="50" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="50" t="s">
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="84"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="71"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="84"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="71"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2379,72 +2393,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="56" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="56" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58" t="s">
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="81"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="82">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="70">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="56" t="s">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="61" t="s">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="81"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2473,64 +2487,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="32" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79">
+      <c r="B23" s="67">
         <v>2281590</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="79" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="81"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="69"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2559,234 +2573,240 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="29" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="29" t="s">
+      <c r="L25" s="84"/>
+      <c r="M25" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="29" t="s">
+      <c r="N25" s="84"/>
+      <c r="O25" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="29" t="s">
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="63"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="85"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="34">
-        <v>45203</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="34">
-        <v>45217</v>
-      </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="85" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="87">
+        <v>45218</v>
+      </c>
+      <c r="L26" s="88"/>
+      <c r="M26" s="87">
+        <v>45232</v>
+      </c>
+      <c r="N26" s="88"/>
+      <c r="O26" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="85" t="s">
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="87"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="46"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="90"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="90"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="49"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="90"/>
-    </row>
-    <row r="30" spans="2:25" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="93"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+    </row>
+    <row r="31" spans="2:25" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="99"/>
+    </row>
+    <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-    </row>
-    <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
     </row>
     <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
@@ -2893,219 +2913,244 @@
       <c r="Y36" s="13"/>
     </row>
     <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="53" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="14"/>
-    </row>
-    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="16"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
+      <c r="T39" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+    </row>
+    <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="53" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="54" t="s">
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-    </row>
-    <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="103"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="69" t="s">
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+    </row>
+    <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-    </row>
-    <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-    </row>
-    <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+    </row>
+    <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+    </row>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3115,24 +3160,34 @@
     <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="U26:Y30"/>
-    <mergeCell ref="B44:Y45"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="K38:Q38"/>
+  <mergeCells count="75">
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="B26:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="K26:L30"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M26:N30"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="O26:T30"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -3149,43 +3204,38 @@
     <mergeCell ref="T9:Y9"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="B9:L9"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B45:Y46"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="S43:Y43"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M26:N30"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="O26:T30"/>
-    <mergeCell ref="B26:J30"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="B32:Y32"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="U26:Y30"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3223,47 +3273,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3272,15 +3322,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3290,277 +3340,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3570,391 +3620,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107" t="s">
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107" t="s">
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107" t="s">
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="109"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="109"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -3982,19 +4032,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B9:K21"/>
     <mergeCell ref="C28:G28"/>
@@ -4011,37 +4079,19 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4065,124 +4115,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="131" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="151" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="153"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="132"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="150"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4211,66 +4261,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="136" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="136" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4299,66 +4349,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84" t="s">
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4387,66 +4437,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129" t="s">
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="136" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="136" t="s">
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="138"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4475,184 +4525,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="139" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="52" t="s">
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="140" t="s">
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="141" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="130" t="s">
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="130" t="s">
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="132"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="139"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="135"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="128" t="s">
+      <c r="J21" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="128" t="s">
+      <c r="R21" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="125" t="s">
+      <c r="P23" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="126" t="s">
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="125" t="s">
+      <c r="P24" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="127" t="s">
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4667,13 +4705,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Stocket\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A5B6D-E8D2-446E-9475-A3F1B2AB110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D471B5-3A94-4904-9DBC-9185C900F51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Bitácora" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>BITÁCORA DE SEGUIMIENTO ETAPA PRODUCTIVA</t>
   </si>
@@ -417,38 +417,28 @@
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE INFORMACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket
-Repositorio GitHub de despliegue para pruebas en https://github.com/luchompi/stocket-deploy
-URL para testeo en https://stocket-deploy.vercel.app/
-Credenciales: 
-Usuario: root
-Contraseña: root123
+    <t>NINGUNA</t>
+  </si>
+  <si>
+    <t>03-NOVIEMBRE -2023 AL 17-NOVIEMBRE-2023</t>
+  </si>
+  <si>
+    <t>Ver. 1.6.42 - Refactor
+En django:
+* Se han actualizado dependencias usadas por el servidor para poder contar con parches de seguridad mas recientes
+* Se ha refactorizado aplicación de empresa, ahora una sola clase puede manejar multiples peticiones de multiples urls, reduciendo su tamaño en un 22%.
+* Se ha corregido respuestas del servidor, ahora este solo respode datos en metodos GET; métodos POST, PUT/PATCH y DELETE
+solo responden con estados HTTP (204, 404, 400, 500, etc.) según sea el caso
+En el cliente:
+* Por observaciones de terceros, se ha suspendido el desarrollo en react y se ha procedido a continuar desarrollo en vuejs
+* Se han implementado vue3-toastify, lottie-web-icons y otras herramientas de UI para mayor experiencia de usuario
+* Se ha reestructurado el sistema de peticiones y respuetas, ahora el sistema pre-carga los datos en local para minimizar consultas futuras y disminuir la carga de peticiones.
+* Se han actualizado las dependencias de desarrollo de vuejs, ahora este cuenta con las versiones de paquetes más recientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket 
+Rama fix
 </t>
-  </si>
-  <si>
-    <t>NINGUNA</t>
-  </si>
-  <si>
-    <t>19-OCTUBRE-2023 AL 02-NOVIEMBRE-2023</t>
-  </si>
-  <si>
-    <t>"Ver. 1.6.42.0 - estable"
-Se ha finalizado el desarrollo del producto, ahora se encuentra disponible para su prueba en internet</t>
-  </si>
-  <si>
-    <t>Ver. 1.6.42 - Refactor
-Se han inicado labores de refactorización de código del servidor, las cuales incluyen:
-* Reducción de código
-* Reescritura de funciones y métodos
-Se ha iniciado labores de planificación de versión nueva:
-* Se han establecido requerimientos funcionales y no funcionales nuevos
-* Se ha definido plan de ejecución nuevo del proyecto
-* Se han iniciado labores de integracion de tecnologias nuevas:
-	- Se ha reemplazado a vuejs por reactjs como gestor de interfaces nuevo</t>
-  </si>
-  <si>
-    <t>Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket
-Rama refactor</t>
   </si>
 </sst>
 </file>
@@ -849,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -927,18 +917,169 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -948,12 +1089,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,187 +1107,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1183,42 +1176,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1237,76 +1263,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1840,8 +1824,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1867,203 +1851,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="73" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="72" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="62"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="63"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="62"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -2089,70 +2073,70 @@
       <c r="Y8" s="65"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="83" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="58" t="s">
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="83">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="38">
         <v>10</v>
       </c>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2181,68 +2165,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="76" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="31" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="96" t="s">
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2299,72 +2283,72 @@
       <c r="Y15" s="66"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="36" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="36" t="s">
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="36" t="s">
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="36" t="s">
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="71"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="72"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="71"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="72"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2393,72 +2377,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="33" t="s">
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="29" t="s">
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="81"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="93"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="70">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33" t="s">
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="82" t="s">
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="81"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="93"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2487,34 +2471,34 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="67">
@@ -2573,240 +2557,234 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="83" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="83" t="s">
+      <c r="L25" s="80"/>
+      <c r="M25" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="83" t="s">
+      <c r="N25" s="80"/>
+      <c r="O25" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="83" t="s">
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="85"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="32">
+        <v>45233</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32">
+        <v>45247</v>
+      </c>
+      <c r="N26" s="33"/>
+      <c r="O26" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="87">
-        <v>45218</v>
-      </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="87">
-        <v>45232</v>
-      </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="44" t="s">
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="46"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="148"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="49"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="151"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="49"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="151"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="49"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="151"/>
     </row>
     <row r="30" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="52"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="151"/>
     </row>
     <row r="31" spans="2:25" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="99"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="154"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
     </row>
     <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
@@ -2965,35 +2943,35 @@
       <c r="Y38" s="11"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="60" t="s">
+      <c r="K39" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
       <c r="R39" s="16"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="55" t="s">
+      <c r="T39" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3023,14 +3001,14 @@
       <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
@@ -3059,97 +3037,97 @@
       <c r="Y42" s="15"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
       <c r="R43" s="16"/>
-      <c r="S43" s="80" t="s">
+      <c r="S43" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
     </row>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3160,34 +3138,38 @@
     <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="B26:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M26:N30"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="O26:T30"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
+  <mergeCells count="70">
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B26:J31"/>
+    <mergeCell ref="B45:Y46"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="B32:Y32"/>
+    <mergeCell ref="B39:I39"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -3204,38 +3186,29 @@
     <mergeCell ref="T9:Y9"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B45:Y46"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="B32:Y32"/>
-    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="U26:Y30"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="K26:L31"/>
+    <mergeCell ref="M26:N31"/>
+    <mergeCell ref="O26:T31"/>
+    <mergeCell ref="U26:Y31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3273,47 +3246,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3322,15 +3295,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3340,277 +3313,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="111"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120" t="s">
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3620,391 +3593,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104" t="s">
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104" t="s">
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104" t="s">
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104" t="s">
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104" t="s">
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="100"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="100"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -4032,6 +4005,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B9:K21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -4048,50 +4065,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B9:K21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4115,124 +4088,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="133" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="130" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="144"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4261,66 +4234,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126" t="s">
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="135" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="135" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="137"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="129"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4377,38 +4350,38 @@
       <c r="X10" s="66"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4437,66 +4410,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126" t="s">
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="135" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="135" t="s">
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="137"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="129"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4525,172 +4498,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="143" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="55" t="s">
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="144" t="s">
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="145" t="s">
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="138" t="s">
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="138" t="s">
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="139"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="123"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="142"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="126"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="154" t="s">
+      <c r="R21" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="151" t="s">
+      <c r="P23" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="152" t="s">
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="152"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="152"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="151" t="s">
+      <c r="P24" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="153" t="s">
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4705,25 +4690,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D471B5-3A94-4904-9DBC-9185C900F51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E11D5-64BC-476E-8A3B-C93E3974AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,8 +1824,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -3215,7 +3215,7 @@
     <hyperlink ref="T20" r:id="rId2" xr:uid="{BD6EC083-FDE4-4F22-8CFB-FF65C888314D}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="60" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967294" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>

--- a/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
+++ b/docs/GFPI-F-147_Formato_bitácora_etapa_productiva - V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stocket\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E11D5-64BC-476E-8A3B-C93E3974AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8FC7B1-6A33-48B0-97E0-D1F2829FAB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="124">
   <si>
     <t>BITÁCORA DE SEGUIMIENTO ETAPA PRODUCTIVA</t>
   </si>
@@ -396,15 +396,6 @@
     <t>SERVICIO NACIONAL DE APRENDIZAJE - SENA</t>
   </si>
   <si>
-    <t>GUSTAVO GONZALEZ IMITOLA</t>
-  </si>
-  <si>
-    <t>319-354-8584</t>
-  </si>
-  <si>
-    <t>gusgoim77@hotmail.com</t>
-  </si>
-  <si>
     <t>LUIS JOSE PICHON GOMEZ</t>
   </si>
   <si>
@@ -439,6 +430,12 @@
     <t xml:space="preserve">Historial de cambios en repositorio GitHub https://github.com/luchompi/Stocket 
 Rama fix
 </t>
+  </si>
+  <si>
+    <t>JOSE DANIEL LOPEZ MARIN</t>
+  </si>
+  <si>
+    <t>jdlopezm@sena,edu.co</t>
   </si>
 </sst>
 </file>
@@ -917,58 +914,200 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,201 +1119,164 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1187,111 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1824,8 +1821,8 @@
   </sheetPr>
   <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:S10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1851,292 +1848,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="52" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="54" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="70"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="62"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
     </row>
     <row r="9" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="38" t="s">
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41" t="s">
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
     </row>
     <row r="10" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="38">
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="64">
         <v>11</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2165,68 +2162,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="43" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43" t="s">
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
+      <c r="B13" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="29">
+        <v>55711346</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2255,100 +2252,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="50" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="50" t="s">
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="50" t="s">
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="72"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="78"/>
     </row>
     <row r="17" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="72"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="78"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2377,72 +2374,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="84" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="75" t="s">
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="93"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="70">
+      <c r="B20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="77">
         <v>1118855506</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="93"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -2471,64 +2468,64 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="41" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="67">
+      <c r="B23" s="74">
         <v>2281590</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="69"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="76"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2557,234 +2554,234 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="38" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="80"/>
-      <c r="M25" s="38" t="s">
+      <c r="L25" s="65"/>
+      <c r="M25" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="38" t="s">
+      <c r="N25" s="65"/>
+      <c r="O25" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="38" t="s">
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="66"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="146" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="32">
+      <c r="B26" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="98">
         <v>45233</v>
       </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="32">
+      <c r="L26" s="99"/>
+      <c r="M26" s="98">
         <v>45247</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="146" t="s">
+      <c r="N26" s="99"/>
+      <c r="O26" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="148"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="48"/>
     </row>
     <row r="27" spans="2:25" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="151"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="51"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="151"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="51"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="150"/>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="151"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="51"/>
     </row>
     <row r="30" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
-      <c r="Y30" s="151"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="51"/>
     </row>
     <row r="31" spans="2:25" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="154"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="54"/>
     </row>
     <row r="32" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
     </row>
     <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
@@ -2943,35 +2940,35 @@
       <c r="Y38" s="11"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="64" t="s">
+      <c r="K39" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
       <c r="R39" s="16"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="74" t="s">
+      <c r="T39" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,14 +2998,14 @@
       <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
@@ -3037,97 +3034,97 @@
       <c r="Y42" s="15"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="64" t="s">
+      <c r="K43" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
       <c r="R43" s="16"/>
-      <c r="S43" s="79" t="s">
+      <c r="S43" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
     </row>
     <row r="47" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3139,21 +3136,44 @@
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="B26:J31"/>
+    <mergeCell ref="U26:Y31"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K26:L31"/>
+    <mergeCell ref="M26:N31"/>
+    <mergeCell ref="O26:T31"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="B45:Y46"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B22:J22"/>
@@ -3170,45 +3190,22 @@
     <mergeCell ref="T39:X39"/>
     <mergeCell ref="B32:Y32"/>
     <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="V16:X17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B26:J31"/>
     <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="K26:L31"/>
-    <mergeCell ref="M26:N31"/>
-    <mergeCell ref="O26:T31"/>
-    <mergeCell ref="U26:Y31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{34655723-8D9A-4DA0-B1A4-D03FD47003BD}"/>
@@ -3246,47 +3243,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="27" t="s">
         <v>109</v>
       </c>
@@ -3295,15 +3292,15 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="28" t="s">
         <v>87</v>
       </c>
@@ -3313,277 +3310,277 @@
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="112"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="112"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -3593,391 +3590,391 @@
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98" t="s">
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98" t="s">
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98" t="s">
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="100"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="100"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -4005,19 +4002,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B9:K21"/>
     <mergeCell ref="C28:G28"/>
@@ -4034,37 +4049,19 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4088,124 +4085,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="122" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="142" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="144"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="132"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="141"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4234,66 +4231,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="127" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="127" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="129"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4322,66 +4319,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72" t="s">
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72" t="s">
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4410,66 +4407,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120" t="s">
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="127" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="127" t="s">
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="129"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4498,184 +4495,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="130" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="74" t="s">
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="131" t="s">
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="132" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="121" t="s">
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="121" t="s">
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="123"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="139"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="126"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="142"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="119" t="s">
+      <c r="J21" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="119" t="s">
+      <c r="R21" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="116" t="s">
+      <c r="P23" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="117" t="s">
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="116" t="s">
+      <c r="P24" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="118" t="s">
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4690,13 +4675,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
